--- a/Documentation/Gantt_AI_VOC.xlsx
+++ b/Documentation/Gantt_AI_VOC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESIREM\ANNEE4\ai_voc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESIREM\ANNEE4\AI-for-for-wearable-Volatile-Organic-Compounds-VOCs-detection-on-smart-clothes\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373362D3-E31D-4AF8-A7A6-C177A5A821C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E6333-0302-4B8E-AC49-C9D17C111B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4D924CC3-60BD-4584-872A-250D8EC07942}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Gantt chart</t>
-  </si>
-  <si>
-    <t>Tasks</t>
   </si>
   <si>
     <t>literature review</t>
@@ -135,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +218,15 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,10 +342,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -345,26 +355,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -391,11 +392,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,13 +405,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="3" xr:uid="{39DF1078-522A-49B9-81AE-51712E26C893}"/>
@@ -765,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5758EF4B-658D-4248-A39B-1F10B2D27B88}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -782,183 +784,317 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
